--- a/AAII_Financials/Yearly/AT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>AT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>281600</v>
+      </c>
+      <c r="E8" s="3">
         <v>282300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>431000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>399200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>420200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>489900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>473400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>429800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>93900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E9" s="3">
         <v>237400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>299300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>314800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>325300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>668900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>680700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>526700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>296500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E10" s="3">
         <v>44900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>131700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>84400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>94900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-179000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-207300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-96900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-202600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,24 +839,27 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7200</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>101100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>85900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>127800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>106600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>316600</v>
+      </c>
+      <c r="E17" s="3">
         <v>244900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>582100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>527700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>534700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>674500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>529800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>573900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>174900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E18" s="3">
         <v>37400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-151100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-128500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-114500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-184600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-56400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-144100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-81000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,13 +1049,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1046,39 +1079,45 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E21" s="3">
         <v>121100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-38000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>120000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E23" s="3">
         <v>37400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-151100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-128500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-114500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-184600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-144100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-81000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-86600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-14600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-30400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-31400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-32800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-28100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E26" s="3">
         <v>37200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-64500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-113900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-84100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-153200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-116000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-69900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E27" s="3">
         <v>36800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-122400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-81900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-148400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-32800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-128500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-75500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-28500</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>19500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-29000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>32200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>70500</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,14 +1442,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1406,39 +1475,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E33" s="3">
         <v>36800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-98600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-122400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-62400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-177400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-96300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E35" s="3">
         <v>36800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-98600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-122400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-62400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-177400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-96300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E41" s="3">
         <v>68300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>78700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>158600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1617,221 +1706,245 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>10600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E43" s="3">
         <v>36000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>53700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>68300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>62700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>161100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E44" s="3">
         <v>15800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>38600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>32000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>16900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>37300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>840700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>112700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>421900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>152700</v>
+      </c>
+      <c r="E46" s="3">
         <v>136300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>169000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>164900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>156900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>998500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>355400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>561700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E47" s="3">
         <v>140800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>163700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>266800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>286200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>306900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>394300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>428700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>970900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>508400</v>
+      </c>
+      <c r="E48" s="3">
         <v>549500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>602300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>733200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1791700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2121700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3801900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2048900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2776500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E49" s="3">
         <v>191400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>212500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>282200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>752300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>951400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1188700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1384500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2216300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6500</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F52" s="3">
         <v>11300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>49500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>93600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1024500</v>
+        <v>935600</v>
       </c>
       <c r="E54" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1158800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1456800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1671200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2916000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3395000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4002700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3248400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E58" s="3">
         <v>86200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>99500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>111900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>258300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>188200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>157900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E59" s="3">
         <v>27200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>102900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>350700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>117100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>329500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>190700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E60" s="3">
         <v>115900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>132900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>150900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>380100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>389400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>535500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>192500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>554600</v>
+      </c>
+      <c r="E61" s="3">
         <v>616400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>721700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>849600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>960400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1486500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1617900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1883300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1594500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>99800</v>
+        <v>120400</v>
       </c>
       <c r="E62" s="3">
+        <v>111800</v>
+      </c>
+      <c r="F62" s="3">
         <v>107400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>170400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>239900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>298100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>433200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>419700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>691500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>832100</v>
+        <v>797900</v>
       </c>
       <c r="E66" s="3">
+        <v>839100</v>
+      </c>
+      <c r="F66" s="3">
         <v>962000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1170900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1236000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2099500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2299000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2816300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2132600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,39 +2545,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E70" s="3">
         <v>199300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>215200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>221300</v>
       </c>
       <c r="G70" s="3">
         <v>221300</v>
       </c>
       <c r="H70" s="3">
+        <v>221300</v>
+      </c>
+      <c r="I70" s="3">
         <v>460300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>487700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>456700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>445600</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1164200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1121600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1158400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1059800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-937400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-863900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-655400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-565200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-641200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-18400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>64600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>213900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>356200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>608300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>729700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>670200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E81" s="3">
         <v>36800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-98600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-122400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-62400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-177400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-96300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E83" s="3">
         <v>83700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>120300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>162600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>176400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>157200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>63600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E89" s="3">
         <v>137500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>169200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>111800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>65000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>152400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>160600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-459100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-230200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>320900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>68700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>147100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-523800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-682000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-34900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-65100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-275100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-85000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-135000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-178900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-98100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-445800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-182400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-207600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>362700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>641200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>91900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>AT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E8" s="3">
         <v>281600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>282300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>431000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>399200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>420200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>489900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>473400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>429800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>93900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E9" s="3">
         <v>204700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>237400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>299300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>314800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>325300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>668900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>680700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>526700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>296500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E10" s="3">
         <v>76900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>131700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>84400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>94900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-179000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-207300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-96900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-202600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,24 +855,27 @@
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7200</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>5800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>101100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>85900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>127800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>106600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E17" s="3">
         <v>316600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>244900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>582100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>527700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>534700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>674500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>529800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>573900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>174900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-35000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-151100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-128500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-114500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-184600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-56400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-144100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-81000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,17 +1082,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1082,42 +1115,48 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E21" s="3">
         <v>30400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>121100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>120000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-151100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-128500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-114500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-184600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-56400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-144100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-81000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E24" s="3">
         <v>9800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-86600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-14600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-30400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-31400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-32800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-28100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-113900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-84100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-153200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-116000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-69900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-122400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-81900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-148400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-32800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-128500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-75500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,30 +1418,33 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-28500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>19500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-29000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>32200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>70500</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,18 +1511,21 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1478,42 +1547,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-98600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-122400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-62400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-177400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-96300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-98600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-122400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-62400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-177400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-96300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E41" s="3">
         <v>74900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>78700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>85600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>158600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1709,242 +1798,266 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>10600</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E43" s="3">
         <v>46600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>68300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>62700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>161100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E44" s="3">
         <v>18600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>38600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>32000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
         <v>12600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>840700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>112700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>421900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E46" s="3">
         <v>152700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>136300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>169000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>164900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>156900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>998500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>355400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>561700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E47" s="3">
         <v>96600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>140800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>163700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>266800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>286200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>306900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>394300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>428700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>970900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>496400</v>
+      </c>
+      <c r="E48" s="3">
         <v>508400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>549500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>602300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>733200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1791700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2121700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3801900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2048900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2776500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E49" s="3">
         <v>165600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>191400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>212500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>282200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>752300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>951400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1188700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1384500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2216300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E52" s="3">
         <v>12300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>49500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>93600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>847200</v>
+      </c>
+      <c r="E54" s="3">
         <v>935600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1031500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1158800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1456800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1671200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2916000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3395000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4002700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3248400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E58" s="3">
         <v>76400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>86200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>99500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>111900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>258300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>188200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>157900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E59" s="3">
         <v>37600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>102900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>350700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>117100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>329500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>190700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E60" s="3">
         <v>122900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>115900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>132900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>150900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>380100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>389400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>535500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>192500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>468200</v>
+      </c>
+      <c r="E61" s="3">
         <v>554600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>616400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>721700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>849600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>960400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1486500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1617900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1883300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1594500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E62" s="3">
         <v>120400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>111800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>107400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>170400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>239900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>298100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>433200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>419700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>691500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>688600</v>
+      </c>
+      <c r="E66" s="3">
         <v>797900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>839100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>962000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1170900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1236000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2099500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2299000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2816300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2132600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,42 +2712,48 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E70" s="3">
         <v>182700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>199300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>215200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>221300</v>
       </c>
       <c r="H70" s="3">
         <v>221300</v>
       </c>
       <c r="I70" s="3">
+        <v>221300</v>
+      </c>
+      <c r="J70" s="3">
         <v>460300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>487700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>456700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>445600</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1090000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1164200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1121600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1158400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1059800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-937400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-863900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-655400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-565200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-641200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-45000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-18400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>64600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>213900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>356200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>608300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>729700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>670200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-98600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-122400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-62400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-177400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-96300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E83" s="3">
         <v>64400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>113500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>120300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>162600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>176400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>157200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E89" s="3">
         <v>144700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>169200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>111800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>65000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>152400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-459100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-230200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>320900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>68700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>147100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-523800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-682000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-34900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-65100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-275100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-85000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-110800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-135000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-178900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-98100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-445800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-182400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-207600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>362700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>641200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E102" s="3">
         <v>12200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>91900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>AT</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>272000</v>
+        <v>104900</v>
       </c>
       <c r="E8" s="3">
-        <v>281600</v>
+        <v>119100</v>
       </c>
       <c r="F8" s="3">
-        <v>282300</v>
+        <v>70200</v>
       </c>
       <c r="G8" s="3">
-        <v>431000</v>
+        <v>58500</v>
       </c>
       <c r="H8" s="3">
-        <v>399200</v>
+        <v>39600</v>
       </c>
       <c r="I8" s="3">
-        <v>420200</v>
+        <v>20700</v>
       </c>
       <c r="J8" s="3">
-        <v>489900</v>
+        <v>13700</v>
       </c>
       <c r="K8" s="3">
         <v>473400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>209300</v>
+        <v>50800</v>
       </c>
       <c r="E9" s="3">
-        <v>204700</v>
+        <v>61700</v>
       </c>
       <c r="F9" s="3">
-        <v>237400</v>
+        <v>33900</v>
       </c>
       <c r="G9" s="3">
-        <v>299300</v>
+        <v>29400</v>
       </c>
       <c r="H9" s="3">
-        <v>314800</v>
+        <v>19600</v>
       </c>
       <c r="I9" s="3">
-        <v>325300</v>
+        <v>10600</v>
       </c>
       <c r="J9" s="3">
-        <v>668900</v>
+        <v>6700</v>
       </c>
       <c r="K9" s="3">
         <v>680700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>62700</v>
+        <v>54100</v>
       </c>
       <c r="E10" s="3">
-        <v>76900</v>
+        <v>57400</v>
       </c>
       <c r="F10" s="3">
-        <v>44900</v>
+        <v>36400</v>
       </c>
       <c r="G10" s="3">
-        <v>131700</v>
+        <v>29100</v>
       </c>
       <c r="H10" s="3">
-        <v>84400</v>
+        <v>20000</v>
       </c>
       <c r="I10" s="3">
-        <v>94900</v>
+        <v>10100</v>
       </c>
       <c r="J10" s="3">
-        <v>-179000</v>
+        <v>7000</v>
       </c>
       <c r="K10" s="3">
         <v>-207300</v>
@@ -843,26 +843,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3700</v>
       </c>
       <c r="K12" s="3">
         <v>7200</v>
@@ -915,26 +915,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>400</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>101100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>85900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>127800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>106600</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>34900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>222700</v>
+        <v>97900</v>
       </c>
       <c r="E17" s="3">
-        <v>316600</v>
+        <v>121400</v>
       </c>
       <c r="F17" s="3">
-        <v>244900</v>
+        <v>80300</v>
       </c>
       <c r="G17" s="3">
-        <v>582100</v>
+        <v>62900</v>
       </c>
       <c r="H17" s="3">
-        <v>527700</v>
+        <v>39200</v>
       </c>
       <c r="I17" s="3">
-        <v>534700</v>
+        <v>23400</v>
       </c>
       <c r="J17" s="3">
-        <v>674500</v>
+        <v>19300</v>
       </c>
       <c r="K17" s="3">
         <v>529800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49300</v>
+        <v>7000</v>
       </c>
       <c r="E18" s="3">
-        <v>-35000</v>
+        <v>-2300</v>
       </c>
       <c r="F18" s="3">
-        <v>37400</v>
+        <v>-10100</v>
       </c>
       <c r="G18" s="3">
-        <v>-151100</v>
+        <v>-4400</v>
       </c>
       <c r="H18" s="3">
-        <v>-128500</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
-        <v>-114500</v>
+        <v>-2700</v>
       </c>
       <c r="J18" s="3">
-        <v>-184600</v>
+        <v>-5700</v>
       </c>
       <c r="K18" s="3">
         <v>-56400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>1000</v>
+        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>109000</v>
+        <v>15700</v>
       </c>
       <c r="E21" s="3">
-        <v>30400</v>
+        <v>5200</v>
       </c>
       <c r="F21" s="3">
-        <v>121100</v>
+        <v>-4100</v>
       </c>
       <c r="G21" s="3">
-        <v>-38000</v>
+        <v>-1600</v>
       </c>
       <c r="H21" s="3">
-        <v>-15000</v>
+        <v>1600</v>
       </c>
       <c r="I21" s="3">
-        <v>5800</v>
+        <v>-3400</v>
       </c>
       <c r="J21" s="3">
-        <v>-22000</v>
+        <v>-6300</v>
       </c>
       <c r="K21" s="3">
         <v>120000</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49300</v>
+        <v>5200</v>
       </c>
       <c r="E23" s="3">
-        <v>-34000</v>
+        <v>-5500</v>
       </c>
       <c r="F23" s="3">
-        <v>37400</v>
+        <v>-12200</v>
       </c>
       <c r="G23" s="3">
-        <v>-151100</v>
+        <v>-6400</v>
       </c>
       <c r="H23" s="3">
-        <v>-128500</v>
+        <v>-800</v>
       </c>
       <c r="I23" s="3">
-        <v>-114500</v>
+        <v>-3800</v>
       </c>
       <c r="J23" s="3">
-        <v>-184600</v>
+        <v>-6600</v>
       </c>
       <c r="K23" s="3">
         <v>-56400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-24200</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="3">
-        <v>9800</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>-86600</v>
-      </c>
       <c r="H24" s="3">
-        <v>-14600</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-30400</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-31400</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>-32800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73500</v>
+        <v>3700</v>
       </c>
       <c r="E26" s="3">
-        <v>-43800</v>
+        <v>-5600</v>
       </c>
       <c r="F26" s="3">
-        <v>37200</v>
+        <v>-11300</v>
       </c>
       <c r="G26" s="3">
-        <v>-64500</v>
+        <v>-6600</v>
       </c>
       <c r="H26" s="3">
-        <v>-113900</v>
+        <v>-800</v>
       </c>
       <c r="I26" s="3">
-        <v>-84100</v>
+        <v>-3800</v>
       </c>
       <c r="J26" s="3">
-        <v>-153200</v>
+        <v>-6600</v>
       </c>
       <c r="K26" s="3">
         <v>-23600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74200</v>
+        <v>3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-42600</v>
+        <v>-5600</v>
       </c>
       <c r="F27" s="3">
-        <v>36800</v>
+        <v>-11300</v>
       </c>
       <c r="G27" s="3">
-        <v>-70100</v>
+        <v>-6600</v>
       </c>
       <c r="H27" s="3">
-        <v>-122400</v>
+        <v>-800</v>
       </c>
       <c r="I27" s="3">
-        <v>-81900</v>
+        <v>-3800</v>
       </c>
       <c r="J27" s="3">
-        <v>-148400</v>
+        <v>-6600</v>
       </c>
       <c r="K27" s="3">
         <v>-32800</v>
@@ -1412,26 +1412,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-28500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-29000</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>-200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1000</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74200</v>
+        <v>3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-42600</v>
+        <v>-5600</v>
       </c>
       <c r="F33" s="3">
-        <v>36800</v>
+        <v>-11300</v>
       </c>
       <c r="G33" s="3">
-        <v>-98600</v>
+        <v>-6600</v>
       </c>
       <c r="H33" s="3">
-        <v>-122400</v>
+        <v>-800</v>
       </c>
       <c r="I33" s="3">
-        <v>-62400</v>
+        <v>-3800</v>
       </c>
       <c r="J33" s="3">
-        <v>-177400</v>
+        <v>-6600</v>
       </c>
       <c r="K33" s="3">
         <v>-33000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74200</v>
+        <v>3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-42600</v>
+        <v>-5600</v>
       </c>
       <c r="F35" s="3">
-        <v>36800</v>
+        <v>-11300</v>
       </c>
       <c r="G35" s="3">
-        <v>-98600</v>
+        <v>-6600</v>
       </c>
       <c r="H35" s="3">
-        <v>-122400</v>
+        <v>-800</v>
       </c>
       <c r="I35" s="3">
-        <v>-62400</v>
+        <v>-3800</v>
       </c>
       <c r="J35" s="3">
-        <v>-177400</v>
+        <v>-6600</v>
       </c>
       <c r="K35" s="3">
         <v>-33000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38800</v>
+        <v>22600</v>
       </c>
       <c r="E41" s="3">
-        <v>74900</v>
+        <v>7400</v>
       </c>
       <c r="F41" s="3">
-        <v>68300</v>
+        <v>8000</v>
       </c>
       <c r="G41" s="3">
-        <v>78700</v>
+        <v>4800</v>
       </c>
       <c r="H41" s="3">
-        <v>85600</v>
+        <v>7300</v>
       </c>
       <c r="I41" s="3">
-        <v>72400</v>
+        <v>4300</v>
       </c>
       <c r="J41" s="3">
-        <v>106000</v>
+        <v>1400</v>
       </c>
       <c r="K41" s="3">
         <v>158600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34500</v>
+        <v>31900</v>
       </c>
       <c r="E43" s="3">
-        <v>46600</v>
+        <v>38500</v>
       </c>
       <c r="F43" s="3">
-        <v>36000</v>
+        <v>34600</v>
       </c>
       <c r="G43" s="3">
-        <v>53700</v>
+        <v>16000</v>
       </c>
       <c r="H43" s="3">
-        <v>37300</v>
+        <v>15500</v>
       </c>
       <c r="I43" s="3">
-        <v>43100</v>
+        <v>5600</v>
       </c>
       <c r="J43" s="3">
-        <v>46400</v>
+        <v>4600</v>
       </c>
       <c r="K43" s="3">
         <v>68300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18300</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>18600</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>15800</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>33800</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>38600</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>32000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14800</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
-        <v>12600</v>
+        <v>2500</v>
       </c>
       <c r="F45" s="3">
-        <v>16200</v>
+        <v>1500</v>
       </c>
       <c r="G45" s="3">
-        <v>18900</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
-        <v>26000</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>28000</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3">
-        <v>840700</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>112700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>106400</v>
+        <v>56400</v>
       </c>
       <c r="E46" s="3">
-        <v>152700</v>
+        <v>48400</v>
       </c>
       <c r="F46" s="3">
-        <v>136300</v>
+        <v>44100</v>
       </c>
       <c r="G46" s="3">
-        <v>169000</v>
+        <v>21700</v>
       </c>
       <c r="H46" s="3">
-        <v>164900</v>
+        <v>23300</v>
       </c>
       <c r="I46" s="3">
-        <v>156900</v>
+        <v>10400</v>
       </c>
       <c r="J46" s="3">
-        <v>998500</v>
+        <v>6300</v>
       </c>
       <c r="K46" s="3">
         <v>355400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>96600</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>140800</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>163700</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>266800</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>286200</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>306900</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>394300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>496400</v>
+        <v>7900</v>
       </c>
       <c r="E48" s="3">
-        <v>508400</v>
+        <v>7000</v>
       </c>
       <c r="F48" s="3">
-        <v>549500</v>
+        <v>3400</v>
       </c>
       <c r="G48" s="3">
-        <v>602300</v>
+        <v>2400</v>
       </c>
       <c r="H48" s="3">
-        <v>733200</v>
+        <v>1900</v>
       </c>
       <c r="I48" s="3">
-        <v>1791700</v>
+        <v>1400</v>
       </c>
       <c r="J48" s="3">
-        <v>2121700</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>3801900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141600</v>
+        <v>8100</v>
       </c>
       <c r="E49" s="3">
-        <v>165600</v>
+        <v>12600</v>
       </c>
       <c r="F49" s="3">
-        <v>191400</v>
+        <v>19000</v>
       </c>
       <c r="G49" s="3">
-        <v>212500</v>
+        <v>17200</v>
       </c>
       <c r="H49" s="3">
-        <v>282200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>752300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>951400</v>
+        <v>6800</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>1188700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>12300</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>13500</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>11300</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>9700</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>49500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>93600</v>
+        <v>100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>97100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>847200</v>
+        <v>72400</v>
       </c>
       <c r="E54" s="3">
-        <v>935600</v>
+        <v>69400</v>
       </c>
       <c r="F54" s="3">
-        <v>1031500</v>
+        <v>67600</v>
       </c>
       <c r="G54" s="3">
-        <v>1158800</v>
+        <v>41400</v>
       </c>
       <c r="H54" s="3">
-        <v>1456800</v>
+        <v>32100</v>
       </c>
       <c r="I54" s="3">
-        <v>1671200</v>
+        <v>11900</v>
       </c>
       <c r="J54" s="3">
-        <v>2916000</v>
+        <v>7000</v>
       </c>
       <c r="K54" s="3">
         <v>3395000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>23200</v>
       </c>
       <c r="E57" s="3">
-        <v>8900</v>
+        <v>26300</v>
       </c>
       <c r="F57" s="3">
-        <v>2500</v>
+        <v>24500</v>
       </c>
       <c r="G57" s="3">
-        <v>2200</v>
+        <v>12100</v>
       </c>
       <c r="H57" s="3">
-        <v>4500</v>
+        <v>12300</v>
       </c>
       <c r="I57" s="3">
         <v>6900</v>
       </c>
       <c r="J57" s="3">
-        <v>9400</v>
+        <v>4000</v>
       </c>
       <c r="K57" s="3">
         <v>14000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95700</v>
+        <v>6400</v>
       </c>
       <c r="E58" s="3">
-        <v>76400</v>
+        <v>20300</v>
       </c>
       <c r="F58" s="3">
-        <v>86200</v>
+        <v>20800</v>
       </c>
       <c r="G58" s="3">
-        <v>99500</v>
+        <v>13100</v>
       </c>
       <c r="H58" s="3">
-        <v>111900</v>
+        <v>9500</v>
       </c>
       <c r="I58" s="3">
-        <v>15800</v>
+        <v>4500</v>
       </c>
       <c r="J58" s="3">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>258300</v>
@@ -2345,26 +2345,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>34900</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>37600</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>27200</v>
+        <v>3300</v>
       </c>
       <c r="G59" s="3">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>34500</v>
+        <v>2600</v>
       </c>
       <c r="I59" s="3">
-        <v>102900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>350700</v>
+        <v>200</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>117100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>136900</v>
+        <v>29700</v>
       </c>
       <c r="E60" s="3">
-        <v>122900</v>
+        <v>46700</v>
       </c>
       <c r="F60" s="3">
-        <v>115900</v>
+        <v>48600</v>
       </c>
       <c r="G60" s="3">
-        <v>132900</v>
+        <v>25200</v>
       </c>
       <c r="H60" s="3">
-        <v>150900</v>
+        <v>24400</v>
       </c>
       <c r="I60" s="3">
-        <v>88900</v>
+        <v>11600</v>
       </c>
       <c r="J60" s="3">
-        <v>380100</v>
+        <v>4200</v>
       </c>
       <c r="K60" s="3">
         <v>389400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>468200</v>
+        <v>10700</v>
       </c>
       <c r="E61" s="3">
-        <v>554600</v>
+        <v>7100</v>
       </c>
       <c r="F61" s="3">
-        <v>616400</v>
+        <v>5700</v>
       </c>
       <c r="G61" s="3">
-        <v>721700</v>
+        <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>849600</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="3">
-        <v>960400</v>
+        <v>2100</v>
       </c>
       <c r="J61" s="3">
-        <v>1486500</v>
+        <v>4100</v>
       </c>
       <c r="K61" s="3">
         <v>1617900</v>
@@ -2453,26 +2453,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>83500</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>120400</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>111800</v>
+        <v>3100</v>
       </c>
       <c r="G62" s="3">
-        <v>107400</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
-        <v>170400</v>
+        <v>3400</v>
       </c>
       <c r="I62" s="3">
-        <v>239900</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>298100</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>433200</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>688600</v>
+        <v>40400</v>
       </c>
       <c r="E66" s="3">
-        <v>797900</v>
+        <v>53800</v>
       </c>
       <c r="F66" s="3">
-        <v>839100</v>
+        <v>57500</v>
       </c>
       <c r="G66" s="3">
-        <v>962000</v>
+        <v>27000</v>
       </c>
       <c r="H66" s="3">
-        <v>1170900</v>
+        <v>29300</v>
       </c>
       <c r="I66" s="3">
-        <v>1236000</v>
+        <v>13700</v>
       </c>
       <c r="J66" s="3">
-        <v>2099500</v>
+        <v>8500</v>
       </c>
       <c r="K66" s="3">
         <v>2299000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>168800</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>182700</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>199300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>215200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>221300</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>221300</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>460300</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>487700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1090000</v>
+        <v>-32200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1164200</v>
+        <v>-33500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1121600</v>
+        <v>-28700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1158400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1059800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-937400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-863900</v>
+        <v>-17500</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>-655400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-10200</v>
+        <v>32100</v>
       </c>
       <c r="E76" s="3">
-        <v>-45000</v>
+        <v>15600</v>
       </c>
       <c r="F76" s="3">
-        <v>-6900</v>
+        <v>10100</v>
       </c>
       <c r="G76" s="3">
-        <v>-18400</v>
+        <v>14400</v>
       </c>
       <c r="H76" s="3">
-        <v>64600</v>
+        <v>2800</v>
       </c>
       <c r="I76" s="3">
-        <v>213900</v>
+        <v>-1800</v>
       </c>
       <c r="J76" s="3">
-        <v>356200</v>
+        <v>-1500</v>
       </c>
       <c r="K76" s="3">
         <v>608300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74200</v>
+        <v>3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-42600</v>
+        <v>-5600</v>
       </c>
       <c r="F81" s="3">
-        <v>36800</v>
+        <v>-11300</v>
       </c>
       <c r="G81" s="3">
-        <v>-98600</v>
+        <v>-6600</v>
       </c>
       <c r="H81" s="3">
-        <v>-122400</v>
+        <v>-800</v>
       </c>
       <c r="I81" s="3">
-        <v>-62400</v>
+        <v>-3800</v>
       </c>
       <c r="J81" s="3">
-        <v>-177400</v>
+        <v>-6600</v>
       </c>
       <c r="K81" s="3">
         <v>-33000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>59700</v>
+        <v>8900</v>
       </c>
       <c r="E83" s="3">
-        <v>64400</v>
+        <v>8100</v>
       </c>
       <c r="F83" s="3">
-        <v>83700</v>
+        <v>6000</v>
       </c>
       <c r="G83" s="3">
-        <v>113100</v>
+        <v>3100</v>
       </c>
       <c r="H83" s="3">
-        <v>113500</v>
+        <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>120300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>162600</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>176400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>107300</v>
+        <v>19300</v>
       </c>
       <c r="E89" s="3">
-        <v>144700</v>
+        <v>600</v>
       </c>
       <c r="F89" s="3">
-        <v>137500</v>
+        <v>-5100</v>
       </c>
       <c r="G89" s="3">
-        <v>169200</v>
+        <v>-4500</v>
       </c>
       <c r="H89" s="3">
-        <v>111800</v>
+        <v>-1400</v>
       </c>
       <c r="I89" s="3">
-        <v>87400</v>
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
-        <v>65000</v>
+        <v>-4600</v>
       </c>
       <c r="K89" s="3">
         <v>152400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24800</v>
+        <v>-4900</v>
       </c>
       <c r="E91" s="3">
-        <v>-7300</v>
+        <v>-6900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1800</v>
+        <v>-2700</v>
       </c>
       <c r="G91" s="3">
-        <v>-5300</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3">
-        <v>-7200</v>
+        <v>-1500</v>
       </c>
       <c r="I91" s="3">
-        <v>-11300</v>
+        <v>-1100</v>
       </c>
       <c r="J91" s="3">
-        <v>-13400</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-44800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10400</v>
+        <v>-5300</v>
       </c>
       <c r="E94" s="3">
-        <v>-21700</v>
+        <v>-8500</v>
       </c>
       <c r="F94" s="3">
-        <v>-17000</v>
+        <v>-6400</v>
       </c>
       <c r="G94" s="3">
-        <v>2800</v>
+        <v>-15400</v>
       </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>-4500</v>
       </c>
       <c r="I94" s="3">
-        <v>320900</v>
+        <v>-1400</v>
       </c>
       <c r="J94" s="3">
-        <v>68700</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>147100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-7400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-8300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-8700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-8500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-19900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-34900</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-65100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-133600</v>
+        <v>1300</v>
       </c>
       <c r="E100" s="3">
-        <v>-110800</v>
+        <v>7200</v>
       </c>
       <c r="F100" s="3">
-        <v>-135000</v>
+        <v>14600</v>
       </c>
       <c r="G100" s="3">
-        <v>-178900</v>
+        <v>17400</v>
       </c>
       <c r="H100" s="3">
-        <v>-98100</v>
+        <v>8900</v>
       </c>
       <c r="I100" s="3">
-        <v>-445800</v>
+        <v>5100</v>
       </c>
       <c r="J100" s="3">
-        <v>-182400</v>
+        <v>6000</v>
       </c>
       <c r="K100" s="3">
         <v>-207600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-36700</v>
+        <v>15200</v>
       </c>
       <c r="E102" s="3">
-        <v>12200</v>
+        <v>-600</v>
       </c>
       <c r="F102" s="3">
-        <v>-14500</v>
+        <v>3200</v>
       </c>
       <c r="G102" s="3">
-        <v>-6900</v>
+        <v>-2400</v>
       </c>
       <c r="H102" s="3">
-        <v>13200</v>
+        <v>3000</v>
       </c>
       <c r="I102" s="3">
-        <v>-37500</v>
+        <v>2800</v>
       </c>
       <c r="J102" s="3">
-        <v>-48700</v>
+        <v>1300</v>
       </c>
       <c r="K102" s="3">
         <v>91900</v>

--- a/AAII_Financials/Yearly/AT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AT_YR_FIN.xlsx
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>433200</v>

--- a/AAII_Financials/Yearly/AT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>AT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E8" s="3">
         <v>104900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>70200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>473400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>429800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>93900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E9" s="3">
         <v>50800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>680700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>526700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>296500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E10" s="3">
         <v>54100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-207300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-96900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-202600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E12" s="3">
         <v>13900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>7200</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>34900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E15" s="3">
         <v>8900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E17" s="3">
         <v>97900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>529800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>573900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>174900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E18" s="3">
         <v>7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-56400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-144100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-81000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,106 +1115,113 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E21" s="3">
         <v>15700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1190,63 +1229,69 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E23" s="3">
         <v>5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-144100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-81000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1254,17 +1299,20 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-32800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-28100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-116000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-69900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-32800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-128500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-75500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1434,17 +1494,20 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>32200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>70500</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-96300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-96300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E41" s="3">
         <v>22600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1801,47 +1890,53 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>10600</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E43" s="3">
         <v>31900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>62700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>161100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1867,89 +1962,98 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>32000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>421900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E46" s="3">
         <v>56400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>355400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>561700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1975,89 +2079,98 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>394300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>428700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>970900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
         <v>7900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3801900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2048900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2776500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E49" s="3">
         <v>8100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>1188700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1384500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2216300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,23 +2243,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2151,21 +2270,24 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E54" s="3">
         <v>72400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3395000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4002700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3248400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E57" s="3">
         <v>23200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>258300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>188200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>157900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>117100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>329500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>190700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E60" s="3">
         <v>29700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>389400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>535500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>192500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1617900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1883300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1594500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3400</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>433200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>419700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>691500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E66" s="3">
         <v>40400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2299000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2816300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2132600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2743,17 +2910,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>487700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>456700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>445600</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,26 +2957,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -2814,18 +2987,21 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-655400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-565200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-641200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E76" s="3">
         <v>32100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>608300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>729700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>670200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-96300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>176400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>157200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E89" s="3">
         <v>19300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>152400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>160600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-459100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-230200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>147100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-523800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-682000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3552,17 +3785,20 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-65100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-275100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-85000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,68 +3910,74 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-207600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>362700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>641200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E102" s="3">
         <v>15200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>91900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E8" s="3">
         <v>122000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>104900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>119100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>70200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>473400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>429800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>93900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E9" s="3">
         <v>58500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>61700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>33900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>680700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>526700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>296500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E10" s="3">
         <v>63600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>54100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>29100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-207300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-96900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-202600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E12" s="3">
         <v>14800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
         <v>7200</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>34900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E15" s="3">
         <v>5100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E17" s="3">
         <v>112600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>97900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>80300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>529800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>573900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>174900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-56400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-144100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-81000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,115 +1148,122 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E21" s="3">
         <v>17800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>120000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1232,69 +1271,75 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>11700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-144100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-81000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1302,17 +1347,20 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-32800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-28100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-116000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-69900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-128500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-75500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>32200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>70500</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-96300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-96300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E41" s="3">
         <v>102200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1893,50 +1982,56 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>10600</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E43" s="3">
         <v>31000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>62700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>161100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1965,95 +2060,104 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>32000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>421900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E46" s="3">
         <v>136500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>355400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>561700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2082,95 +2186,104 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>394300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>428700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>970900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3801900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2048900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2776500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E49" s="3">
         <v>7900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>1188700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1384500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2216300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,26 +2362,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2273,21 +2392,24 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>97200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E54" s="3">
         <v>149800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3395000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4002700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3248400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E57" s="3">
         <v>24900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>258300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>188200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>157900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>117100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>329500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>190700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E60" s="3">
         <v>30800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>389400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>535500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>192500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1617900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1883300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1594500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>1100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3400</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>433200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>419700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>691500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E66" s="3">
         <v>36800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2299000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2816300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2132600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2913,17 +3080,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>487700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>456700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>445600</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,29 +3130,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -2990,18 +3163,21 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-655400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-565200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-641200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E76" s="3">
         <v>113100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>608300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>729700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>670200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-96300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>176400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>157200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>19700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>152400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>160600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-459100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-230200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>147100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-523800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-682000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3788,17 +4021,20 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-65100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-275100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-85000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,56 +4155,62 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E100" s="3">
         <v>58800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-207600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>362700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>641200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -3979,8 +4227,8 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3991,46 +4239,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>79600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
